--- a/lab-02/Tabla.xlsx
+++ b/lab-02/Tabla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renegade/Documents/Uniandes/2025-II/REDES-ISIS3204/REDES_LAB-ISIS3204L/lab-02/informe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renegade/MyRepos/communications-lab/lab-02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EFD39C8-7735-3E49-9791-33C223F08658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B861951-6655-754E-912A-BD7A7FE7A545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="21820" windowWidth="27520" windowHeight="17440" xr2:uid="{40791AF7-C388-3246-B691-C15F058C0FEA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{40791AF7-C388-3246-B691-C15F058C0FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>Tipo de Paquete</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>(FTP)</t>
+  </si>
+  <si>
+    <t>172.20.10.6</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -150,6 +153,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -161,10 +175,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -173,6 +183,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7C1E3E-8140-4E49-B452-3FD595B9C046}">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="206" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,171 +540,168 @@
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/lab-02/Tabla.xlsx
+++ b/lab-02/Tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renegade/MyRepos/communications-lab/lab-02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B861951-6655-754E-912A-BD7A7FE7A545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D56A1-91AD-5045-952D-F0CF7AED0881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{40791AF7-C388-3246-B691-C15F058C0FEA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
   <si>
     <t>Tipo de Paquete</t>
   </si>
@@ -81,6 +81,24 @@
   </si>
   <si>
     <t>172.20.10.6</t>
+  </si>
+  <si>
+    <t>00:50:56:30:C7:64</t>
+  </si>
+  <si>
+    <t>00:0C:29:7B:B3:C5</t>
+  </si>
+  <si>
+    <t>172.20.10.5</t>
+  </si>
+  <si>
+    <t>Puerto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2 Prueba ping </t>
+  </si>
+  <si>
+    <t>(WEB-IPv4)</t>
   </si>
 </sst>
 </file>
@@ -130,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -164,11 +182,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -189,6 +244,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7C1E3E-8140-4E49-B452-3FD595B9C046}">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="206" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -617,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
@@ -682,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -699,18 +763,143 @@
         <v>4</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5">
+        <v>58612</v>
+      </c>
+      <c r="D27" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5">
+        <v>53</v>
+      </c>
+      <c r="D28" s="5">
+        <v>58612</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
